--- a/va_facility_data_2025-02-20/Tobyhanna VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Tobyhanna%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Tobyhanna VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Tobyhanna%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R033a6289bc3c4967bf45db7210d811df"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R5083c1e8780d4876a09e3bbee3c0d87c"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rd41b857d0d1548eb93e48170064581f0"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Ra5380efb8e86462b90c2a4d91c3e042f"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R12f71fd55f4e45c1b971c6d406a6741a"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R4ba1965a274a4238a729e30e45b3186f"/>
   </x:sheets>
 </x:workbook>
 </file>
